--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA4ADF9-C8DB-4D5C-B422-059B68ED5300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9D71E3-E480-442E-BEFD-9172B0112133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -569,22 +569,22 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="6" customWidth="1"/>
-    <col min="15" max="15" width="7.21875" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -607,7 +607,7 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -628,7 +628,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -654,7 +654,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -667,7 +667,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="8" spans="1:19" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="50.25" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -734,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -742,7 +742,9 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -761,7 +763,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -769,7 +771,9 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -788,7 +792,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -796,7 +800,9 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -809,13 +815,13 @@
       <c r="N11" s="1"/>
       <c r="O11" s="4">
         <f>SUM(C11:J11)/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -823,7 +829,9 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -836,13 +844,13 @@
       <c r="N12" s="1"/>
       <c r="O12" s="4">
         <f>SUM(C12:J12)/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -850,7 +858,9 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -863,13 +873,13 @@
       <c r="N13" s="1"/>
       <c r="O13" s="4">
         <f t="shared" ref="O13:O24" si="1">SUM(C13:J13)/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -877,7 +887,9 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -890,13 +902,13 @@
       <c r="N14" s="1"/>
       <c r="O14" s="4">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -904,7 +916,9 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -923,7 +937,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -931,7 +945,9 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -950,7 +966,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -958,7 +974,9 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -977,7 +995,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -985,7 +1003,9 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -998,13 +1018,13 @@
       <c r="N18" s="1"/>
       <c r="O18" s="4">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1032,9 @@
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1031,7 +1053,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1039,7 +1061,9 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1052,13 +1076,13 @@
       <c r="N20" s="1"/>
       <c r="O20" s="4">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1066,7 +1090,9 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1079,13 +1105,13 @@
       <c r="N21" s="1"/>
       <c r="O21" s="4">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1093,7 +1119,9 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1106,13 +1134,13 @@
       <c r="N22" s="1"/>
       <c r="O22" s="4">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1120,7 +1148,9 @@
       <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1139,7 +1169,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1147,7 +1177,9 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1160,13 +1192,13 @@
       <c r="N24" s="1"/>
       <c r="O24" s="4">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1174,7 +1206,9 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1187,13 +1221,13 @@
       <c r="N25" s="1"/>
       <c r="O25" s="4">
         <f t="shared" ref="O25:O26" si="2">SUM(C25:J25)/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1201,7 +1235,9 @@
       <c r="C26" s="1">
         <v>0</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1222,15 +1258,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:S2"/>
     <mergeCell ref="B3:G3"/>
@@ -1246,6 +1273,15 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9D71E3-E480-442E-BEFD-9172B0112133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64E4B64-A35F-485E-8E52-1C18B70AC672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -566,25 +566,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E958-BC9B-4B48-B997-2E65A9176DA7}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="6" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" customWidth="1"/>
+    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -602,12 +602,8 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -623,12 +619,8 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -637,11 +629,8 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -650,11 +639,8 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -663,11 +649,8 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -676,11 +659,8 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="8" spans="1:19" ht="50.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -692,49 +672,37 @@
         <v>44960</v>
       </c>
       <c r="E8" s="2">
-        <v>44958</v>
+        <v>44965</v>
       </c>
       <c r="F8" s="2">
-        <v>44959</v>
+        <v>44966</v>
       </c>
       <c r="G8" s="2">
-        <v>44963</v>
+        <v>44970</v>
       </c>
       <c r="H8" s="2">
-        <v>44964</v>
+        <v>44971</v>
       </c>
       <c r="I8" s="2">
-        <v>44965</v>
+        <v>44972</v>
       </c>
       <c r="J8" s="2">
-        <v>44966</v>
-      </c>
-      <c r="K8" s="2">
-        <v>44970</v>
-      </c>
-      <c r="L8" s="2">
-        <v>44971</v>
-      </c>
-      <c r="M8" s="2">
-        <v>44972</v>
-      </c>
-      <c r="N8" s="2">
         <v>44973</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -745,25 +713,23 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="4">
-        <f t="shared" ref="O9:O10" si="0">SUM(C9:J9)/12</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K9" s="4">
+        <f>SUM(C9:F9)/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -774,25 +740,23 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K10" s="4">
+        <f>SUM(C10:F10)/12</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -803,25 +767,23 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="4">
+        <f>SUM(C11:F11)/12</f>
+        <v>0.25</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="4">
-        <f>SUM(C11:J11)/12</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -832,25 +794,23 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="4">
+        <f>SUM(C12:F12)/12</f>
+        <v>0.25</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="4">
-        <f>SUM(C12:J12)/12</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -861,25 +821,23 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="4">
+        <f>SUM(C13:F13)/12</f>
+        <v>0.25</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="4">
-        <f t="shared" ref="O13:O24" si="1">SUM(C13:J13)/12</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -890,25 +848,23 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="4">
+        <f>SUM(C14:F14)/12</f>
+        <v>0.25</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -919,25 +875,23 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="4">
+        <f>SUM(C15:F15)/12</f>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="4">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -948,25 +902,23 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="4">
+        <f>SUM(C16:F16)/12</f>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="4">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -977,25 +929,23 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="4">
+        <f>SUM(C17:F17)/12</f>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="4">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1006,25 +956,23 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="4">
+        <f>SUM(C18:F18)/12</f>
+        <v>0.25</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1035,25 +983,23 @@
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="4">
+        <f>SUM(C19:F19)/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1064,25 +1010,23 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="4">
+        <f>SUM(C20:F20)/12</f>
+        <v>0.25</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1093,25 +1037,23 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="4">
+        <f>SUM(C21:F21)/12</f>
+        <v>0.25</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1122,25 +1064,23 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="4">
+        <f>SUM(C22:F22)/12</f>
+        <v>0.25</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1151,25 +1091,23 @@
       <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="4">
+        <f>SUM(C23:F23)/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1180,25 +1118,23 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="4">
+        <f>SUM(C24:F24)/12</f>
+        <v>0.25</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1209,25 +1145,23 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="4">
+        <f t="shared" ref="K25:K26" si="0">SUM(C25:F25)/12</f>
+        <v>0.25</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="4">
-        <f t="shared" ref="O25:O26" si="2">SUM(C25:J25)/12</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1238,32 +1172,39 @@
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -1273,22 +1214,13 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{EFADB86E-F19A-4D6D-9AE6-50CFB8436D78}">
+          <x14:cfRule type="iconSet" priority="5" id="{EFADB86E-F19A-4D6D-9AE6-50CFB8436D78}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1304,7 +1236,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:N26</xm:sqref>
+          <xm:sqref>C9:J26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64E4B64-A35F-485E-8E52-1C18B70AC672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878AE541-052E-40BE-91DB-EA9CDC46BEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -568,23 +568,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E958-BC9B-4B48-B997-2E65A9176DA7}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -603,7 +603,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -620,7 +620,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -640,7 +640,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="8" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -678,7 +678,7 @@
         <v>44966</v>
       </c>
       <c r="G8" s="2">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="H8" s="2">
         <v>44971</v>
@@ -702,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -716,20 +716,24 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="4">
-        <f>SUM(C9:F9)/12</f>
+        <f t="shared" ref="K9:K24" si="0">SUM(C9:F9)/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -743,20 +747,24 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="4">
-        <f>SUM(C10:F10)/12</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -770,20 +778,24 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="4">
-        <f>SUM(C11:F11)/12</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -797,20 +809,24 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="4">
-        <f>SUM(C12:F12)/12</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -824,20 +840,24 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="4">
-        <f>SUM(C13:F13)/12</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -851,20 +871,24 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="4">
-        <f>SUM(C14:F14)/12</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -878,20 +902,24 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="4">
-        <f>SUM(C15:F15)/12</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -905,20 +933,24 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="4">
-        <f>SUM(C16:F16)/12</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -932,20 +964,24 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="4">
-        <f>SUM(C17:F17)/12</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -959,20 +995,24 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="4">
-        <f>SUM(C18:F18)/12</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -986,20 +1026,24 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="4">
-        <f>SUM(C19:F19)/12</f>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1013,20 +1057,24 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="4">
-        <f>SUM(C20:F20)/12</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1040,20 +1088,24 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="4">
-        <f>SUM(C21:F21)/12</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1067,20 +1119,24 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="4">
-        <f>SUM(C22:F22)/12</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1094,20 +1150,24 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="4">
-        <f>SUM(C23:F23)/12</f>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1121,20 +1181,24 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="4">
-        <f>SUM(C24:F24)/12</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1148,20 +1212,24 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="4">
-        <f t="shared" ref="K25:K26" si="0">SUM(C25:F25)/12</f>
-        <v>0.25</v>
+        <f t="shared" ref="K25:K26" si="1">SUM(C25:F25)/12</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1175,13 +1243,17 @@
       <c r="E26" s="1">
         <v>0</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L26" s="1"/>
@@ -1190,15 +1262,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="B3:D3"/>
@@ -1214,6 +1277,15 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878AE541-052E-40BE-91DB-EA9CDC46BEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A7C2F5-271D-4C66-9C1D-23A536DEB43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -568,23 +568,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E958-BC9B-4B48-B997-2E65A9176DA7}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -603,7 +603,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -620,7 +620,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -640,7 +640,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="8" spans="1:15" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -675,13 +675,13 @@
         <v>44965</v>
       </c>
       <c r="F8" s="2">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="G8" s="2">
-        <v>44967</v>
+        <v>44972</v>
       </c>
       <c r="H8" s="2">
-        <v>44971</v>
+        <v>44974</v>
       </c>
       <c r="I8" s="2">
         <v>44972</v>
@@ -702,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -733,7 +733,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -764,7 +764,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -795,7 +795,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -888,7 +888,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -950,7 +950,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1136,7 +1136,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1229,7 +1229,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1262,6 +1262,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="B3:D3"/>
@@ -1277,15 +1286,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A7C2F5-271D-4C66-9C1D-23A536DEB43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8603D17-B498-4200-BB0E-BC8A183CA975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -568,23 +568,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E958-BC9B-4B48-B997-2E65A9176DA7}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -603,7 +603,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -620,7 +620,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -640,7 +640,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -702,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -722,7 +722,9 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="4">
@@ -733,7 +735,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -753,7 +755,9 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="4">
@@ -764,7 +768,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -784,7 +788,9 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="4">
@@ -795,7 +801,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -815,7 +821,9 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="4">
@@ -826,7 +834,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -846,7 +854,9 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="4">
@@ -857,7 +867,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -877,7 +887,9 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="4">
@@ -888,7 +900,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -908,7 +920,9 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="4">
@@ -919,7 +933,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -939,7 +953,9 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="4">
@@ -950,7 +966,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -970,7 +986,9 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="4">
@@ -981,7 +999,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1001,7 +1019,9 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="4">
@@ -1012,7 +1032,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1052,9 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="4">
@@ -1043,7 +1065,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1063,7 +1085,9 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="4">
@@ -1074,7 +1098,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1094,7 +1118,9 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="4">
@@ -1105,7 +1131,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1125,7 +1151,9 @@
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="4">
@@ -1136,7 +1164,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1156,7 +1184,9 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="4">
@@ -1167,7 +1197,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1187,7 +1217,9 @@
       <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="4">
@@ -1198,7 +1230,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1218,7 +1250,9 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="4">
@@ -1229,7 +1263,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1249,7 +1283,9 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="4">
@@ -1262,15 +1298,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="B3:D3"/>
@@ -1286,6 +1313,15 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8603D17-B498-4200-BB0E-BC8A183CA975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925FA00F-1DCF-4F72-AC29-FB11A1F6876B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="20760" windowHeight="11070" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>ROMERO PACHECO JESUS</t>
+  </si>
+  <si>
+    <t>DE JESUS TECPILE RENE</t>
   </si>
 </sst>
 </file>
@@ -566,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E958-BC9B-4B48-B997-2E65A9176DA7}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,10 +687,10 @@
         <v>44974</v>
       </c>
       <c r="I8" s="2">
-        <v>44972</v>
+        <v>44979</v>
       </c>
       <c r="J8" s="2">
-        <v>44973</v>
+        <v>44981</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>6</v>
@@ -725,8 +728,12 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="4">
         <f t="shared" ref="K9:K24" si="0">SUM(C9:F9)/12</f>
         <v>8.3333333333333329E-2</v>
@@ -758,8 +765,12 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
@@ -791,8 +802,12 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -824,8 +839,12 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -857,8 +876,12 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -890,8 +913,12 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
       <c r="K14" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -923,8 +950,12 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
@@ -956,8 +987,12 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
@@ -989,8 +1024,12 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -1022,8 +1061,12 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -1055,8 +1098,12 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
       <c r="K19" s="4">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -1088,8 +1135,12 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
       <c r="K20" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
@@ -1121,8 +1172,12 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
       <c r="K21" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -1154,8 +1209,12 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
@@ -1187,8 +1246,12 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -1220,8 +1283,12 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
       <c r="K24" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -1253,8 +1320,12 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
       <c r="K25" s="4">
         <f t="shared" ref="K25:K26" si="1">SUM(C25:F25)/12</f>
         <v>0.33333333333333331</v>
@@ -1286,8 +1357,12 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
       <c r="K26" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1296,8 +1371,45 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" ref="K27" si="2">SUM(C27:F27)/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="B3:D3"/>
@@ -1313,6 +1425,7 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
@@ -1344,7 +1457,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:J26</xm:sqref>
+          <xm:sqref>C9:J27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925FA00F-1DCF-4F72-AC29-FB11A1F6876B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE59A16-F51B-4202-AEAE-B50F466C91D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="20760" windowHeight="11070" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -569,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E958-BC9B-4B48-B997-2E65A9176DA7}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,14 +580,14 @@
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" customWidth="1"/>
+    <col min="7" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -605,8 +605,9 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -622,8 +623,9 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -633,7 +635,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -643,7 +645,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -653,7 +655,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -663,7 +665,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="8" spans="1:15" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -692,20 +694,23 @@
       <c r="J8" s="2">
         <v>44981</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2">
+        <v>44986</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -734,15 +739,18 @@
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="4">
-        <f t="shared" ref="K9:K24" si="0">SUM(C9:F9)/12</f>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" ref="L9:L24" si="0">SUM(C9:F9)/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -771,15 +779,18 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -808,15 +819,18 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -845,15 +859,18 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -882,15 +899,18 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -919,15 +939,18 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -956,15 +979,18 @@
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -993,15 +1019,18 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1030,15 +1059,18 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1067,15 +1099,18 @@
       <c r="J18" s="1">
         <v>1</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1104,15 +1139,18 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1141,15 +1179,18 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1178,15 +1219,18 @@
       <c r="J21" s="1">
         <v>0</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1215,15 +1259,18 @@
       <c r="J22" s="1">
         <v>1</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1252,15 +1299,18 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1289,15 +1339,18 @@
       <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1326,15 +1379,18 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
-      <c r="K25" s="4">
-        <f t="shared" ref="K25:K26" si="1">SUM(C25:F25)/12</f>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" ref="L25:L26" si="1">SUM(C25:F25)/12</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1363,15 +1419,18 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
@@ -1400,18 +1459,31 @@
       <c r="J27" s="1">
         <v>1</v>
       </c>
-      <c r="K27" s="4">
-        <f t="shared" ref="K27" si="2">SUM(C27:F27)/12</f>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" ref="L27" si="2">SUM(C27:F27)/12</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A1:P2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -1425,16 +1497,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1457,7 +1519,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:J27</xm:sqref>
+          <xm:sqref>C9:K27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE59A16-F51B-4202-AEAE-B50F466C91D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC24AF4-EDE1-494D-8887-872B7414BA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
@@ -569,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E958-BC9B-4B48-B997-2E65A9176DA7}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,14 +580,14 @@
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" customWidth="1"/>
+    <col min="7" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -606,8 +606,9 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -624,8 +625,9 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -635,7 +637,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -645,7 +647,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -655,7 +657,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -665,7 +667,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="8" spans="1:16" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -697,20 +699,23 @@
       <c r="K8" s="2">
         <v>44986</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2">
+        <v>44988</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -742,15 +747,18 @@
       <c r="K9" s="1">
         <v>1</v>
       </c>
-      <c r="L9" s="4">
-        <f t="shared" ref="L9:L24" si="0">SUM(C9:F9)/12</f>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" ref="M9:M24" si="0">SUM(C9:F9)/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -782,15 +790,18 @@
       <c r="K10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -822,15 +833,18 @@
       <c r="K11" s="1">
         <v>1</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -862,15 +876,18 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -902,15 +919,18 @@
       <c r="K13" s="1">
         <v>1</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -942,15 +962,18 @@
       <c r="K14" s="1">
         <v>1</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -982,15 +1005,18 @@
       <c r="K15" s="1">
         <v>1</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1022,15 +1048,18 @@
       <c r="K16" s="1">
         <v>0</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1062,15 +1091,18 @@
       <c r="K17" s="1">
         <v>0</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1102,15 +1134,18 @@
       <c r="K18" s="1">
         <v>1</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1142,15 +1177,18 @@
       <c r="K19" s="1">
         <v>1</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1182,15 +1220,18 @@
       <c r="K20" s="1">
         <v>0</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1222,15 +1263,18 @@
       <c r="K21" s="1">
         <v>0</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1262,15 +1306,18 @@
       <c r="K22" s="1">
         <v>0</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1302,15 +1349,18 @@
       <c r="K23" s="1">
         <v>0</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1342,15 +1392,18 @@
       <c r="K24" s="1">
         <v>1</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1382,15 +1435,18 @@
       <c r="K25" s="1">
         <v>0</v>
       </c>
-      <c r="L25" s="4">
-        <f t="shared" ref="L25:L26" si="1">SUM(C25:F25)/12</f>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" ref="M25:M26" si="1">SUM(C25:F25)/12</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1422,15 +1478,18 @@
       <c r="K26" s="1">
         <v>0</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
@@ -1462,28 +1521,21 @@
       <c r="K27" s="1">
         <v>1</v>
       </c>
-      <c r="L27" s="4">
-        <f t="shared" ref="L27" si="2">SUM(C27:F27)/12</f>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" ref="M27" si="2">SUM(C27:F27)/12</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A1:Q2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -1497,6 +1549,16 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1519,7 +1581,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:K27</xm:sqref>
+          <xm:sqref>C9:L27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC24AF4-EDE1-494D-8887-872B7414BA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D97BA0-2A5A-4F7E-9D44-0D8C70A016B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unidad 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unidad 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -129,6 +130,9 @@
   </si>
   <si>
     <t>DE JESUS TECPILE RENE</t>
+  </si>
+  <si>
+    <t>Representación del conocimiento, razonamiento y los Aspectos Metodológicos en Inteligencia Artificial.</t>
   </si>
 </sst>
 </file>
@@ -227,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -254,6 +258,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E958-BC9B-4B48-B997-2E65A9176DA7}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,7 +764,9 @@
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="P9" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -799,7 +809,9 @@
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -842,7 +854,9 @@
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="P11" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -885,7 +899,9 @@
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -928,7 +944,9 @@
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="P13" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -971,7 +989,9 @@
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1014,7 +1034,9 @@
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="P15" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -1057,7 +1079,9 @@
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1100,7 +1124,9 @@
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="P17" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1143,7 +1169,9 @@
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="P18" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -1186,7 +1214,9 @@
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="P19" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -1229,7 +1259,9 @@
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1272,7 +1304,9 @@
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -1315,7 +1349,9 @@
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="P22" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -1358,7 +1394,9 @@
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1401,7 +1439,9 @@
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="P24" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1444,7 +1484,9 @@
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -1487,7 +1529,9 @@
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -1530,10 +1574,22 @@
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="P27" s="1">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="B3:D3"/>
@@ -1549,16 +1605,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1587,4 +1633,717 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E2BE68-6220-4D9A-AB2C-7927E663D0F5}">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="2">
+        <v>44995</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="4">
+        <f t="shared" ref="M9:M24" si="0">SUM(C9:F9)/12</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="4">
+        <f t="shared" ref="M25:M26" si="1">SUM(C25:F25)/12</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="4">
+        <f t="shared" ref="M27" si="2">SUM(C27:F27)/12</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{98B3A8F3-13E4-4CE3-917A-9C3C624AA674}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:L27</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D97BA0-2A5A-4F7E-9D44-0D8C70A016B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BCFFC7-8063-4C95-82AE-98BEADD2F5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidad 1" sheetId="1" r:id="rId1"/>
@@ -241,6 +241,7 @@
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -261,7 +262,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,103 +583,103 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="8" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2">
         <v>44958</v>
       </c>
@@ -723,11 +723,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="1">
         <v>0</v>
       </c>
@@ -768,11 +768,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="1">
         <v>1</v>
       </c>
@@ -813,11 +813,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1">
         <v>1</v>
       </c>
@@ -858,11 +858,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="1">
         <v>1</v>
       </c>
@@ -903,11 +903,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1">
         <v>1</v>
       </c>
@@ -948,11 +948,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
@@ -993,11 +993,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
@@ -1038,11 +1038,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -1083,11 +1083,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -1128,11 +1128,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -1173,11 +1173,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="1">
         <v>0</v>
       </c>
@@ -1218,11 +1218,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -1263,11 +1263,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -1308,11 +1308,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -1353,11 +1353,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="1">
         <v>0</v>
       </c>
@@ -1398,11 +1398,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -1443,11 +1443,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="1">
         <v>1</v>
       </c>
@@ -1488,11 +1488,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1">
         <v>0</v>
       </c>
@@ -1533,11 +1533,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="1">
         <v>1</v>
       </c>
@@ -1580,16 +1580,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="B3:D3"/>
@@ -1605,6 +1595,16 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1639,124 +1639,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E2BE68-6220-4D9A-AB2C-7927E663D0F5}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-    </row>
-    <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="8" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2">
         <v>44995</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>45000</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1778,15 +1780,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1797,7 +1801,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="4">
         <f t="shared" ref="M9:M24" si="0">SUM(C9:F9)/12</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1805,15 +1809,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1832,15 +1838,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1851,7 +1859,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1859,15 +1867,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1886,15 +1896,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1905,7 +1917,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1913,15 +1925,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1932,7 +1946,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1940,15 +1954,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="13">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1959,7 +1975,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1967,15 +1983,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1994,15 +2012,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2013,7 +2033,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2021,15 +2041,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2040,7 +2062,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2048,15 +2070,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2067,7 +2091,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2075,15 +2099,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2102,15 +2128,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2129,15 +2157,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2148,7 +2178,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2156,15 +2186,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2183,15 +2215,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2202,7 +2236,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2210,15 +2244,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2237,15 +2273,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1">
         <v>0</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2264,15 +2302,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="1">
         <v>0</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2283,7 +2323,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="4">
         <f t="shared" ref="M27" si="2">SUM(C27:F27)/12</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2293,6 +2333,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="B6:Q6"/>
     <mergeCell ref="A21:B21"/>
@@ -2309,15 +2358,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BCFFC7-8063-4C95-82AE-98BEADD2F5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62056E23-2456-425D-BC8A-02848DEFDFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidad 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Representación del conocimiento, razonamiento y los Aspectos Metodológicos en Inteligencia Artificial.</t>
+  </si>
+  <si>
+    <t>17/0#/2023</t>
   </si>
 </sst>
 </file>
@@ -583,19 +586,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -616,7 +619,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -635,7 +638,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -645,7 +648,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -655,7 +658,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -665,7 +668,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -675,7 +678,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="8" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
@@ -723,7 +726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -768,7 +771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -813,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -858,7 +861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -903,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -948,7 +951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -993,7 +996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -1580,6 +1583,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="B3:D3"/>
@@ -1595,16 +1608,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1639,23 +1642,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E2BE68-6220-4D9A-AB2C-7927E663D0F5}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1676,7 +1679,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1695,7 +1698,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1705,7 +1708,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1715,7 +1718,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1725,7 +1728,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1748,7 +1751,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
@@ -1759,7 +1762,9 @@
       <c r="D8" s="2">
         <v>45000</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1780,7 +1785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -1791,7 +1796,9 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1801,7 +1808,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="4">
         <f t="shared" ref="M9:M24" si="0">SUM(C9:F9)/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1809,7 +1816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -1820,7 +1827,9 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1838,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1849,7 +1858,9 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1859,7 +1870,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1867,7 +1878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -1878,7 +1889,9 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1896,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1907,7 +1920,9 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1917,7 +1932,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1925,7 +1940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1936,7 +1951,9 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1946,7 +1963,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1954,7 +1971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1965,7 +1982,9 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1975,7 +1994,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1983,7 +2002,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -1994,7 +2013,9 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2012,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -2023,7 +2044,9 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2033,7 +2056,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2041,7 +2064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -2052,7 +2075,9 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2062,7 +2087,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2070,7 +2095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -2081,7 +2106,9 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2091,7 +2118,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2099,7 +2126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -2110,7 +2137,9 @@
       <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2128,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -2139,7 +2168,9 @@
       <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2157,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -2168,7 +2199,9 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2178,7 +2211,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2186,7 +2219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -2197,7 +2230,9 @@
       <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2207,7 +2242,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2215,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -2226,7 +2261,9 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2236,7 +2273,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2244,7 +2281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -2255,7 +2292,9 @@
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2273,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
@@ -2284,7 +2323,9 @@
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2302,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -2313,7 +2354,9 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2323,7 +2366,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="4">
         <f t="shared" ref="M27" si="2">SUM(C27:F27)/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2333,15 +2376,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="B6:Q6"/>
     <mergeCell ref="A21:B21"/>
@@ -2358,6 +2392,15 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62056E23-2456-425D-BC8A-02848DEFDFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C692255-EB05-45E8-88F2-308D3D73D635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
@@ -1643,7 +1643,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1765,8 +1765,12 @@
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2">
+        <v>45007</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45009</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1799,8 +1803,12 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1830,8 +1838,12 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1861,8 +1873,12 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1870,7 +1886,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1892,8 +1908,12 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1923,8 +1943,12 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1932,7 +1956,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1954,8 +1978,12 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1985,8 +2013,12 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1994,7 +2026,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2016,8 +2048,12 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2047,8 +2083,12 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2056,7 +2096,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2078,8 +2118,12 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2109,8 +2153,12 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2118,7 +2166,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2140,8 +2188,12 @@
       <c r="E20" s="1">
         <v>0</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2171,8 +2223,12 @@
       <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2202,8 +2258,12 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2233,8 +2293,12 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2264,8 +2328,12 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2273,7 +2341,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2295,8 +2363,12 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2326,8 +2398,12 @@
       <c r="E26" s="1">
         <v>0</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2357,8 +2433,12 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2366,7 +2446,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="4">
         <f t="shared" ref="M27" si="2">SUM(C27:F27)/12</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>

--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C692255-EB05-45E8-88F2-308D3D73D635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD880DB-6172-464F-A40D-BDDF02B1FA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidad 1" sheetId="1" r:id="rId1"/>
@@ -586,19 +586,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -638,7 +638,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -648,7 +648,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -668,7 +668,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
@@ -726,7 +726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -771,7 +771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -861,7 +861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -951,7 +951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -996,7 +996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -1583,16 +1583,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="B3:D3"/>
@@ -1608,6 +1598,16 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1642,23 +1642,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E2BE68-6220-4D9A-AB2C-7927E663D0F5}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1698,7 +1698,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
@@ -1771,7 +1771,9 @@
       <c r="G8" s="2">
         <v>45009</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>45014</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1789,7 +1791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -1809,7 +1811,9 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1824,7 +1828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -1844,7 +1848,9 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1859,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1879,7 +1885,9 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1894,7 +1902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -1914,7 +1922,9 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1929,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +1959,9 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1964,7 +1976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +1996,9 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1999,7 +2013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2019,7 +2033,9 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2034,7 +2050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -2054,7 +2070,9 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2069,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -2089,7 +2107,9 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2104,7 +2124,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -2124,7 +2144,9 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2139,7 +2161,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -2159,7 +2181,9 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2174,7 +2198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -2194,7 +2218,9 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2209,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -2229,7 +2255,9 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2244,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -2264,7 +2292,9 @@
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2279,7 +2309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -2299,7 +2329,9 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2314,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -2334,7 +2366,9 @@
       <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2349,7 +2383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -2369,7 +2403,9 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2384,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
@@ -2404,7 +2440,9 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2419,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -2439,7 +2477,9 @@
       <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2456,6 +2496,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="B6:Q6"/>
     <mergeCell ref="A21:B21"/>
@@ -2472,15 +2521,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD880DB-6172-464F-A40D-BDDF02B1FA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2176F77B-D351-4F3C-85D2-A32B51EB23BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidad 1" sheetId="1" r:id="rId1"/>
     <sheet name="Unidad 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Unidad 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -136,6 +137,9 @@
   </si>
   <si>
     <t>17/0#/2023</t>
+  </si>
+  <si>
+    <t>Reglas y Busqueda</t>
   </si>
 </sst>
 </file>
@@ -234,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -265,6 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,19 +591,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -619,7 +624,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -638,7 +643,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -648,7 +653,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -658,7 +663,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -668,7 +673,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -678,7 +683,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="8" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
@@ -726,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -771,7 +776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -816,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -861,7 +866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -906,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -951,7 +956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -996,7 +1001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -1086,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1176,7 +1181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1221,7 +1226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1266,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -1311,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -1356,7 +1361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -1446,7 +1451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1491,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
@@ -1536,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -1583,6 +1588,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="B3:D3"/>
@@ -1598,16 +1613,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1642,23 +1647,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E2BE68-6220-4D9A-AB2C-7927E663D0F5}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1684,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1698,7 +1703,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1708,7 +1713,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1718,7 +1723,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1728,7 +1733,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1751,7 +1756,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
@@ -1791,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -1828,7 +1833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -1865,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1902,7 +1907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -1939,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1976,7 +1981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -2013,7 +2018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2050,7 +2055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -2087,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -2124,7 +2129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -2161,7 +2166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -2198,7 +2203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -2235,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -2272,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -2309,7 +2314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -2346,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -2383,7 +2388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
@@ -2457,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -2496,15 +2501,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="B6:Q6"/>
     <mergeCell ref="A21:B21"/>
@@ -2521,6 +2517,15 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2549,4 +2554,717 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9DC60B-2F85-4EE8-AB26-0A4D4839628A}">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="2">
+        <v>45035</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="4">
+        <f t="shared" ref="M9:M24" si="0">SUM(C9:F9)/12</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="4">
+        <f t="shared" ref="M25:M26" si="1">SUM(C25:F25)/12</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="4">
+        <f t="shared" ref="M27" si="2">SUM(C27:F27)/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{BC9B2197-EBBE-4641-9FCC-4ADAD0881495}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:L27</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2176F77B-D351-4F3C-85D2-A32B51EB23BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDA0E50-0604-44DD-B016-C044ABEA86CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidad 1" sheetId="1" r:id="rId1"/>
@@ -249,6 +249,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -269,7 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,90 +604,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2">
         <v>44958</v>
       </c>
@@ -732,10 +732,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1">
         <v>0</v>
       </c>
@@ -777,10 +777,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1">
         <v>1</v>
       </c>
@@ -822,10 +822,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1">
         <v>1</v>
       </c>
@@ -867,10 +867,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1">
         <v>1</v>
       </c>
@@ -912,10 +912,10 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1">
         <v>1</v>
       </c>
@@ -957,10 +957,10 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
@@ -1002,10 +1002,10 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
@@ -1047,10 +1047,10 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -1092,10 +1092,10 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -1137,10 +1137,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -1182,10 +1182,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1">
         <v>0</v>
       </c>
@@ -1227,10 +1227,10 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -1272,10 +1272,10 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -1317,10 +1317,10 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -1362,10 +1362,10 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1">
         <v>0</v>
       </c>
@@ -1407,10 +1407,10 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -1452,10 +1452,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1">
         <v>1</v>
       </c>
@@ -1497,10 +1497,10 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1">
         <v>0</v>
       </c>
@@ -1542,10 +1542,10 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1">
         <v>1</v>
       </c>
@@ -1588,16 +1588,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="B3:D3"/>
@@ -1613,6 +1603,16 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1647,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E2BE68-6220-4D9A-AB2C-7927E663D0F5}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1664,103 +1664,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2">
         <v>44995</v>
       </c>
@@ -1797,10 +1797,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1">
         <v>0</v>
       </c>
@@ -1834,10 +1834,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1">
         <v>0</v>
       </c>
@@ -1871,10 +1871,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1">
         <v>1</v>
       </c>
@@ -1908,10 +1908,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1">
         <v>0</v>
       </c>
@@ -1945,10 +1945,10 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1">
         <v>0</v>
       </c>
@@ -1982,10 +1982,10 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1">
         <v>0</v>
       </c>
@@ -2019,10 +2019,10 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="5">
         <v>0</v>
       </c>
@@ -2056,10 +2056,10 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1">
         <v>0</v>
       </c>
@@ -2093,10 +2093,10 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -2130,10 +2130,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -2167,10 +2167,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1">
         <v>0</v>
       </c>
@@ -2204,10 +2204,10 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1">
         <v>0</v>
       </c>
@@ -2241,10 +2241,10 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1">
         <v>0</v>
       </c>
@@ -2278,10 +2278,10 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -2315,10 +2315,10 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1">
         <v>0</v>
       </c>
@@ -2352,10 +2352,10 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -2389,10 +2389,10 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
@@ -2426,10 +2426,10 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1">
         <v>0</v>
       </c>
@@ -2463,10 +2463,10 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1">
         <v>0</v>
       </c>
@@ -2501,6 +2501,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="B6:Q6"/>
     <mergeCell ref="A21:B21"/>
@@ -2517,15 +2526,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2560,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9DC60B-2F85-4EE8-AB26-0A4D4839628A}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2577,107 +2577,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2">
         <v>45035</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>45049</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2700,14 +2702,16 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2718,7 +2722,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="4">
         <f t="shared" ref="M9:M24" si="0">SUM(C9:F9)/12</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -2727,14 +2731,16 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2754,14 +2760,16 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2772,7 +2780,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2781,14 +2789,16 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2808,14 +2818,16 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2826,7 +2838,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2835,14 +2847,16 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2853,7 +2867,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2862,14 +2876,16 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2880,7 +2896,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2889,14 +2905,16 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2916,14 +2934,16 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2943,14 +2963,16 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2961,7 +2983,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2970,14 +2992,16 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2988,7 +3012,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2997,14 +3021,16 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3024,14 +3050,16 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3051,14 +3079,16 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3078,14 +3108,16 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3105,14 +3137,16 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3123,7 +3157,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3132,14 +3166,16 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3159,14 +3195,16 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1">
         <v>0</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3177,7 +3215,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3186,14 +3224,16 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3204,7 +3244,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="4">
         <f t="shared" ref="M27" si="2">SUM(C27:F27)/12</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -3214,6 +3254,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
@@ -3221,24 +3279,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
+++ b/Inteligencia Artificial/LISTA DE ASISTENCIA.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Inteligencia Artificial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDA0E50-0604-44DD-B016-C044ABEA86CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57176B2-71C9-48A5-B4DC-9735B5CC4B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="3" xr2:uid="{05E92156-7A35-4056-A5AB-4470FCABBAEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidad 1" sheetId="1" r:id="rId1"/>
     <sheet name="Unidad 2" sheetId="2" r:id="rId2"/>
     <sheet name="Unidad 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Unidad 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="34">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -136,10 +137,10 @@
     <t>Representación del conocimiento, razonamiento y los Aspectos Metodológicos en Inteligencia Artificial.</t>
   </si>
   <si>
-    <t>17/0#/2023</t>
+    <t>Reglas y Busqueda</t>
   </si>
   <si>
-    <t>Reglas y Busqueda</t>
+    <t>Aplicaciones con técnicas de IA.</t>
   </si>
 </sst>
 </file>
@@ -238,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -248,8 +249,6 @@
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -585,109 +584,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E958-BC9B-4B48-B997-2E65A9176DA7}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" customWidth="1"/>
+    <col min="7" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2">
         <v>44958</v>
       </c>
@@ -712,80 +707,72 @@
       <c r="J8" s="2">
         <v>44981</v>
       </c>
-      <c r="K8" s="2">
-        <v>44986</v>
-      </c>
-      <c r="L8" s="2">
-        <v>44988</v>
+      <c r="K8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
+        <f>SUM(C9:J9)/8</f>
         <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" ref="M9:M24" si="0">SUM(C9:F9)/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -794,38 +781,36 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" ref="K10:K27" si="0">SUM(C10:J10)/8</f>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1">
         <v>1</v>
       </c>
@@ -850,38 +835,36 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="N11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -895,27 +878,25 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1">
         <v>1</v>
       </c>
@@ -935,32 +916,30 @@
         <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="1">
+        <v>100</v>
+      </c>
+      <c r="N13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
@@ -974,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -985,32 +964,30 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
+      <c r="N14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1030,38 +1007,36 @@
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1">
+        <v>100</v>
+      </c>
+      <c r="N15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1075,32 +1050,30 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1109,43 +1082,41 @@
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1">
+        <v>100</v>
+      </c>
+      <c r="N17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1165,32 +1136,30 @@
       <c r="J18" s="1">
         <v>1</v>
       </c>
-      <c r="K18" s="1">
-        <v>1</v>
+      <c r="K18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1">
+        <v>100</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1205,40 +1174,38 @@
         <v>1</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
+      <c r="N19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1255,38 +1222,36 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1300,27 +1265,25 @@
       <c r="J21" s="1">
         <v>0</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
       </c>
-      <c r="M21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -1331,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -1345,27 +1308,25 @@
       <c r="J22" s="1">
         <v>1</v>
       </c>
-      <c r="K22" s="1">
-        <v>0</v>
+      <c r="K22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L22" s="1">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+      <c r="N22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1">
         <v>0</v>
       </c>
@@ -1373,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1390,27 +1351,25 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
       </c>
-      <c r="M23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -1435,38 +1394,36 @@
       <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L24" s="1">
-        <v>1</v>
-      </c>
-      <c r="M24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="1">
+        <v>100</v>
+      </c>
+      <c r="N24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1480,27 +1437,25 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="4">
-        <f t="shared" ref="M25:M26" si="1">SUM(C25:F25)/12</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" s="1">
+        <v>100</v>
+      </c>
+      <c r="N25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1">
         <v>0</v>
       </c>
@@ -1525,27 +1480,25 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26" s="1">
         <v>0</v>
       </c>
-      <c r="M26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1">
         <v>1</v>
       </c>
@@ -1570,26 +1523,34 @@
       <c r="J27" s="1">
         <v>1</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L27" s="1">
-        <v>1</v>
-      </c>
-      <c r="M27" s="4">
-        <f t="shared" ref="M27" si="2">SUM(C27:F27)/12</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1">
+        <v>100</v>
+      </c>
+      <c r="M27" s="1">
+        <v>100</v>
+      </c>
+      <c r="N27" s="1">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="A1:O2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -1603,23 +1564,13 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{EFADB86E-F19A-4D6D-9AE6-50CFB8436D78}">
+          <x14:cfRule type="iconSet" priority="6" id="{EFADB86E-F19A-4D6D-9AE6-50CFB8436D78}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1635,7 +1586,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:L27</xm:sqref>
+          <xm:sqref>C9:J27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1645,164 +1596,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E2BE68-6220-4D9A-AB2C-7927E663D0F5}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" customWidth="1"/>
+    <col min="7" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2">
+        <v>44987</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44988</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44994</v>
+      </c>
+      <c r="F8" s="2">
         <v>44995</v>
       </c>
-      <c r="D8" s="2">
-        <v>45000</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45007</v>
-      </c>
       <c r="G8" s="2">
+        <v>45001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45002</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45008</v>
+      </c>
+      <c r="J8" s="2">
         <v>45009</v>
       </c>
-      <c r="H8" s="2">
-        <v>45014</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="M8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1811,70 +1758,82 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="4">
-        <f t="shared" ref="M9:M24" si="0">SUM(C9:F9)/12</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUM(C9:J9)/8</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" ref="K10:K27" si="0">SUM(C10:J10)/8</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1">
         <v>1</v>
       </c>
@@ -1893,25 +1852,31 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>100</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="N11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1">
         <v>0</v>
       </c>
@@ -1930,27 +1895,33 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1967,27 +1938,33 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>100</v>
+      </c>
+      <c r="M13" s="1">
+        <v>100</v>
+      </c>
+      <c r="N13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1996,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2004,27 +1981,33 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
+      <c r="N14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="5">
-        <v>0</v>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1">
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -2041,25 +2024,31 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1">
+        <v>100</v>
+      </c>
+      <c r="N15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1">
         <v>0</v>
       </c>
@@ -2078,27 +2067,33 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -2107,72 +2102,84 @@
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1">
+        <v>100</v>
+      </c>
+      <c r="N17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="L18" s="1">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1">
+        <v>100</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -2189,25 +2196,31 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
+      <c r="N19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1">
         <v>0</v>
       </c>
@@ -2226,25 +2239,31 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1">
         <v>0</v>
       </c>
@@ -2263,25 +2282,31 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -2292,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -2300,25 +2325,31 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>100</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+      <c r="N22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1">
         <v>0</v>
       </c>
@@ -2326,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2337,25 +2368,31 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -2374,25 +2411,31 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>100</v>
+      </c>
+      <c r="M24" s="1">
+        <v>100</v>
+      </c>
+      <c r="N24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
@@ -2411,25 +2454,31 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="4">
-        <f t="shared" ref="M25:M26" si="1">SUM(C25:F25)/12</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>100</v>
+      </c>
+      <c r="M25" s="1">
+        <v>100</v>
+      </c>
+      <c r="N25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1">
         <v>0</v>
       </c>
@@ -2443,32 +2492,38 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -2485,33 +2540,30 @@
       <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="4">
-        <f t="shared" ref="M27" si="2">SUM(C27:F27)/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1">
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>100</v>
+      </c>
+      <c r="M27" s="1">
+        <v>100</v>
+      </c>
+      <c r="N27" s="1">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B6:O6"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
@@ -2526,13 +2578,22 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{98B3A8F3-13E4-4CE3-917A-9C3C624AA674}">
+          <x14:cfRule type="iconSet" priority="1" id="{1ED0D39C-B3B4-4EC9-927B-3F6E39F43594}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2548,7 +2609,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:L27</xm:sqref>
+          <xm:sqref>C9:J27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2560,139 +2621,156 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9DC60B-2F85-4EE8-AB26-0A4D4839628A}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6" customWidth="1"/>
+    <col min="11" max="12" width="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="8" spans="1:17" ht="49.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="B6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="8" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2">
-        <v>45035</v>
+        <v>44987</v>
       </c>
       <c r="D8" s="2">
-        <v>45049</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+        <v>44988</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44994</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44995</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45002</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45008</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45009</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="M8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>8</v>
@@ -2701,553 +2779,2083 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6">
-        <v>0</v>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1">
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="4">
-        <f t="shared" ref="M9:M24" si="0">SUM(C9:F9)/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUM(C9:J9)/8</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+      <c r="O9" s="1">
+        <v>100</v>
+      </c>
       <c r="P9" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" ref="K10:K27" si="0">SUM(C10:J10)/8</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
       <c r="P10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>100</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="N11" s="1">
+        <v>100</v>
+      </c>
+      <c r="O11" s="1">
+        <v>100</v>
+      </c>
       <c r="P11" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
       <c r="P12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>100</v>
+      </c>
+      <c r="M13" s="1">
+        <v>100</v>
+      </c>
+      <c r="N13" s="1">
+        <v>100</v>
+      </c>
+      <c r="O13" s="1">
+        <v>100</v>
+      </c>
       <c r="P13" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
+      <c r="N14" s="1">
+        <v>100</v>
+      </c>
+      <c r="O14" s="1">
+        <v>100</v>
+      </c>
       <c r="P14" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="5">
+      <c r="B15" s="6"/>
+      <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1">
+        <v>100</v>
+      </c>
+      <c r="N15" s="1">
+        <v>100</v>
+      </c>
+      <c r="O15" s="1">
+        <v>100</v>
+      </c>
       <c r="P15" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
       <c r="P16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1">
+        <v>100</v>
+      </c>
+      <c r="N17" s="1">
+        <v>100</v>
+      </c>
+      <c r="O17" s="1">
+        <v>100</v>
+      </c>
       <c r="P17" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="L18" s="1">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1">
+        <v>100</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100</v>
+      </c>
+      <c r="O18" s="1">
+        <v>100</v>
+      </c>
       <c r="P18" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
+      <c r="N19" s="1">
+        <v>100</v>
+      </c>
+      <c r="O19" s="1">
+        <v>100</v>
+      </c>
       <c r="P19" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
       <c r="P20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
       <c r="P21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>100</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+      <c r="N22" s="1">
+        <v>100</v>
+      </c>
+      <c r="O22" s="1">
+        <v>100</v>
+      </c>
       <c r="P22" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1">
         <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
       <c r="P23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>100</v>
+      </c>
+      <c r="M24" s="1">
+        <v>100</v>
+      </c>
+      <c r="N24" s="1">
+        <v>100</v>
+      </c>
+      <c r="O24" s="1">
+        <v>100</v>
+      </c>
       <c r="P24" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="4">
-        <f t="shared" ref="M25:M26" si="1">SUM(C25:F25)/12</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>100</v>
+      </c>
+      <c r="M25" s="1">
+        <v>100</v>
+      </c>
+      <c r="N25" s="1">
+        <v>100</v>
+      </c>
+      <c r="O25" s="1">
+        <v>100</v>
+      </c>
       <c r="P25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="4">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
       <c r="P26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="4">
-        <f t="shared" ref="M27" si="2">SUM(C27:F27)/12</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>100</v>
+      </c>
+      <c r="M27" s="1">
+        <v>100</v>
+      </c>
+      <c r="N27" s="1">
+        <v>100</v>
+      </c>
+      <c r="O27" s="1">
+        <v>100</v>
+      </c>
+      <c r="P27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:Q6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{A374B983-A672-4032-B1C8-F0D400F0A513}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:J27</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1331A1-14C7-47C3-BF87-8DF8E368FE75}">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6" customWidth="1"/>
+    <col min="11" max="12" width="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="8" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="2">
+        <v>45057</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45058</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45064</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45065</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45071</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45072</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45078</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45079</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUM(C9:J9)/8</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+      <c r="O9" s="1">
+        <v>100</v>
+      </c>
+      <c r="P9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" ref="K10:K27" si="0">SUM(C10:J10)/8</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>100</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="N11" s="1">
+        <v>100</v>
+      </c>
+      <c r="O11" s="1">
+        <v>100</v>
+      </c>
+      <c r="P11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>100</v>
+      </c>
+      <c r="M13" s="1">
+        <v>100</v>
+      </c>
+      <c r="N13" s="1">
+        <v>100</v>
+      </c>
+      <c r="O13" s="1">
+        <v>100</v>
+      </c>
+      <c r="P13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
+      <c r="N14" s="1">
+        <v>100</v>
+      </c>
+      <c r="O14" s="1">
+        <v>100</v>
+      </c>
+      <c r="P14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1">
+        <v>100</v>
+      </c>
+      <c r="N15" s="1">
+        <v>100</v>
+      </c>
+      <c r="O15" s="1">
+        <v>100</v>
+      </c>
+      <c r="P15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1">
+        <v>100</v>
+      </c>
+      <c r="N17" s="1">
+        <v>100</v>
+      </c>
+      <c r="O17" s="1">
+        <v>100</v>
+      </c>
+      <c r="P17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="L18" s="1">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1">
+        <v>100</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100</v>
+      </c>
+      <c r="O18" s="1">
+        <v>100</v>
+      </c>
+      <c r="P18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
+      <c r="N19" s="1">
+        <v>100</v>
+      </c>
+      <c r="O19" s="1">
+        <v>100</v>
+      </c>
+      <c r="P19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>100</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+      <c r="N22" s="1">
+        <v>100</v>
+      </c>
+      <c r="O22" s="1">
+        <v>100</v>
+      </c>
+      <c r="P22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>100</v>
+      </c>
+      <c r="M24" s="1">
+        <v>100</v>
+      </c>
+      <c r="N24" s="1">
+        <v>100</v>
+      </c>
+      <c r="O24" s="1">
+        <v>100</v>
+      </c>
+      <c r="P24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>100</v>
+      </c>
+      <c r="M25" s="1">
+        <v>100</v>
+      </c>
+      <c r="N25" s="1">
+        <v>100</v>
+      </c>
+      <c r="O25" s="1">
+        <v>100</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>100</v>
+      </c>
+      <c r="M27" s="1">
+        <v>100</v>
+      </c>
+      <c r="N27" s="1">
+        <v>100</v>
+      </c>
+      <c r="O27" s="1">
+        <v>100</v>
+      </c>
       <c r="P27" s="1">
         <v>100</v>
       </c>
@@ -3285,7 +4893,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{BC9B2197-EBBE-4641-9FCC-4ADAD0881495}">
+          <x14:cfRule type="iconSet" priority="1" id="{2B4BDCE0-739D-43C4-B660-2FAEBAB12CDD}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3301,7 +4909,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:L27</xm:sqref>
+          <xm:sqref>C9:J27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
